--- a/Tabelas/diebold - Etanol Hidratado.xlsx
+++ b/Tabelas/diebold - Etanol Hidratado.xlsx
@@ -365,47 +365,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Model 18</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Model 16</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Model 28</t>
+          <t>M16</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Model 26</t>
+          <t>M14</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Model 17</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Model 27</t>
+          <t>M15</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Model 1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Model 21</t>
+          <t>M9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>VECM w/ Exc</t>
+          <t>VECM2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -415,49 +415,49 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Model 24</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Model 14</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Model 22</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Model 12</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Model 25</t>
+          <t>M13</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Model 15</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Model 23</t>
+          <t>M11</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Model 13</t>
+          <t>M3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Model 18</t>
+          <t>M8</t>
         </is>
       </c>
       <c r="C2">
@@ -515,7 +515,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Model 16</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="B3">
@@ -573,7 +573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Model 28</t>
+          <t>M16</t>
         </is>
       </c>
       <c r="B4">
@@ -631,7 +631,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model 26</t>
+          <t>M14</t>
         </is>
       </c>
       <c r="B5">
@@ -689,7 +689,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model 17</t>
+          <t>M7</t>
         </is>
       </c>
       <c r="B6">
@@ -747,7 +747,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model 27</t>
+          <t>M15</t>
         </is>
       </c>
       <c r="B7">
@@ -805,7 +805,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model 1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="B8">
@@ -863,7 +863,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model 21</t>
+          <t>M9</t>
         </is>
       </c>
       <c r="B9">
@@ -921,7 +921,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VECM w/ Exc</t>
+          <t>VECM2</t>
         </is>
       </c>
       <c r="B10">
@@ -1037,7 +1037,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Model 24</t>
+          <t>M12</t>
         </is>
       </c>
       <c r="B12">
@@ -1095,7 +1095,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Model 14</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="B13">
@@ -1153,7 +1153,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Model 22</t>
+          <t>M10</t>
         </is>
       </c>
       <c r="B14">
@@ -1211,7 +1211,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Model 12</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="B15">
@@ -1269,7 +1269,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model 25</t>
+          <t>M13</t>
         </is>
       </c>
       <c r="B16">
@@ -1327,7 +1327,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model 15</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="B17">
@@ -1385,7 +1385,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model 23</t>
+          <t>M11</t>
         </is>
       </c>
       <c r="B18">
@@ -1443,7 +1443,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model 13</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="B19">
